--- a/data/trans_dic/P62-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P62-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5034341037100328</v>
+        <v>0.5071653630621855</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4438187526800149</v>
+        <v>0.4440186235743987</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3971296819332764</v>
+        <v>0.3968900662610472</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5443543927217604</v>
+        <v>0.5439503183667262</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2035863775341689</v>
+        <v>0.2077968723523146</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2782744385909912</v>
+        <v>0.2741335859141868</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2583007485575778</v>
+        <v>0.2599669767949896</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3674482998113404</v>
+        <v>0.3666255983431351</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3258928613065186</v>
+        <v>0.3234672860933419</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3636541738846801</v>
+        <v>0.3634931546779305</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3344206025348422</v>
+        <v>0.3354332349702168</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4567120141239344</v>
+        <v>0.457024849577052</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6130588231383005</v>
+        <v>0.6152700148559505</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5426275011175855</v>
+        <v>0.5446075059338937</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4913405395890603</v>
+        <v>0.4948862460009161</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6697478441928546</v>
+        <v>0.6730148948332394</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2750484434968588</v>
+        <v>0.2758397547484726</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3605916460786213</v>
+        <v>0.3597775626501044</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3428873063594921</v>
+        <v>0.3402120728611086</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4397122521959065</v>
+        <v>0.4397219179292778</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3931723977828243</v>
+        <v>0.3895402242393641</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4287557143321431</v>
+        <v>0.4299757874627568</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3987788014529838</v>
+        <v>0.3965013442538606</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5196652457681904</v>
+        <v>0.5242172986983409</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.4396900928980637</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5276916704903727</v>
+        <v>0.5276916704903728</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.2189118508782693</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5130389700978674</v>
+        <v>0.5112251415178977</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3652586304009166</v>
+        <v>0.3688503986750727</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3973897685949951</v>
+        <v>0.3989036987993071</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4722234312094418</v>
+        <v>0.4696038065513667</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1872635795958288</v>
+        <v>0.1885909091992495</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2445599609470157</v>
+        <v>0.247691785680038</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2354149110289769</v>
+        <v>0.2382675375877906</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2994615191602921</v>
+        <v>0.3002162805440774</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3155309350140559</v>
+        <v>0.3154284763853439</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3113843405136456</v>
+        <v>0.3121913329002818</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3195701902479501</v>
+        <v>0.3185570094590447</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3834461808556912</v>
+        <v>0.3811322071301782</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6090469464883718</v>
+        <v>0.6105188175960227</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4480734113684974</v>
+        <v>0.4493475498450258</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4778735217040528</v>
+        <v>0.4793365187086414</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5813799039952786</v>
+        <v>0.5801622839379541</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2554494274659613</v>
+        <v>0.2526730271854283</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3146631808894247</v>
+        <v>0.315905787429179</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3052159835604387</v>
+        <v>0.3070751447264696</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3642137219258559</v>
+        <v>0.3636827186272392</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3707896528559536</v>
+        <v>0.3729784503012648</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.364813039999833</v>
+        <v>0.3663913788383802</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3720325702318594</v>
+        <v>0.3710517482937477</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4374661223897731</v>
+        <v>0.4398499999232174</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5149192839978732</v>
+        <v>0.5191730551151209</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3430937747889376</v>
+        <v>0.3414520404949506</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4131298277097114</v>
+        <v>0.4175483910148946</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5364331347297236</v>
+        <v>0.533800492017601</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2210114602921619</v>
+        <v>0.2216765831197695</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2278423274580594</v>
+        <v>0.2287751552695456</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2337457994560412</v>
+        <v>0.2339346688520807</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3112620401417792</v>
+        <v>0.3115471997928579</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3389042560967008</v>
+        <v>0.338813516668152</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2893526434732034</v>
+        <v>0.2917287012090606</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3259532405552091</v>
+        <v>0.3259742564957802</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4227155570658542</v>
+        <v>0.4260937108363222</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6332620256056559</v>
+        <v>0.6386008480095342</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4415183075622349</v>
+        <v>0.4404812810245992</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5180552395853767</v>
+        <v>0.5215657835401921</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6604301997534121</v>
+        <v>0.6611681514769561</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2977630102490368</v>
+        <v>0.303173023226622</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.305830041280354</v>
+        <v>0.3047713779291631</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3166478949241837</v>
+        <v>0.3193456646434994</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3887845487468756</v>
+        <v>0.3905037334369673</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.411442673632723</v>
+        <v>0.4119244185845875</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3554852726949631</v>
+        <v>0.3538044093412262</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3942360568149436</v>
+        <v>0.3948067545146159</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4949745817907789</v>
+        <v>0.4960750433945769</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.5029643547284846</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4931752858996162</v>
+        <v>0.4931752858996161</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2729816925103991</v>
@@ -1093,7 +1093,7 @@
         <v>0.3575337485589561</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.391961867561869</v>
+        <v>0.3919618675618689</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.3553357758435904</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4425162190887881</v>
+        <v>0.4470862093193248</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4263611956494405</v>
+        <v>0.4263912093324769</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4550954700225779</v>
+        <v>0.4598605167791423</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4463861828945302</v>
+        <v>0.4420569355853219</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2409804520329783</v>
+        <v>0.2389594444854939</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2687510348413354</v>
+        <v>0.2715754149517011</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3218375676351622</v>
+        <v>0.3162850117371638</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3577115201021495</v>
+        <v>0.3577646608655861</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3306475830708636</v>
+        <v>0.3245563211027982</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3466392884002965</v>
+        <v>0.347985650939484</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3890558640881794</v>
+        <v>0.3916242425469766</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4072659229739632</v>
+        <v>0.4098633492039599</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5424508373822703</v>
+        <v>0.5422223583124621</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5201758756008352</v>
+        <v>0.5172334740954769</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5436779048824639</v>
+        <v>0.5450748167480176</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5435511996004396</v>
+        <v>0.5455957996472729</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3112956043075853</v>
+        <v>0.3082502336439578</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3405284944526715</v>
+        <v>0.3404340799828638</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.397225043928035</v>
+        <v>0.3976027860937893</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4276203696434588</v>
+        <v>0.4205472875221722</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3892965796216862</v>
+        <v>0.3831358707205969</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4040368128900327</v>
+        <v>0.4026329254626976</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4470006796419018</v>
+        <v>0.4490038681933379</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.462354808100954</v>
+        <v>0.4612193111400726</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.3018460071529139</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.3685193055784265</v>
+        <v>0.3685193055784266</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.3561388928180357</v>
@@ -1241,7 +1241,7 @@
         <v>0.3733026194381282</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.4451216008317878</v>
+        <v>0.4451216008317879</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5214447426436543</v>
+        <v>0.5216836331317521</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4165599947831586</v>
+        <v>0.4179888818832902</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4434870773061729</v>
+        <v>0.4415732256726386</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.523467444680313</v>
+        <v>0.5222550828412503</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2281610089964327</v>
+        <v>0.2304362384921742</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2729106663099228</v>
+        <v>0.2732423443920264</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2830251059357509</v>
+        <v>0.2799426836237374</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3501033437173701</v>
+        <v>0.3514033627066935</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3401447600039961</v>
+        <v>0.3409623327728866</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3421935555380589</v>
+        <v>0.3414595838440916</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3584695447151721</v>
+        <v>0.3589957819901721</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4305830870206366</v>
+        <v>0.4316951990191983</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.571433094972482</v>
+        <v>0.5729991524108591</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4624968442727683</v>
+        <v>0.4630271117155343</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4862822079331806</v>
+        <v>0.4872965874936976</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5803220499493489</v>
+        <v>0.5786813653468095</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.264224326911613</v>
+        <v>0.2647806373830752</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3102045627229664</v>
+        <v>0.3085658548296076</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3212726229862083</v>
+        <v>0.3207888197976912</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3854488634138085</v>
+        <v>0.3866470633781927</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3713513505623651</v>
+        <v>0.3711302646027516</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3708792537051283</v>
+        <v>0.3695926601226737</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3889988145367836</v>
+        <v>0.3887753130960044</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4599490526034813</v>
+        <v>0.4620550453562696</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>153594</v>
+        <v>154733</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>191064</v>
+        <v>191150</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>169023</v>
+        <v>168921</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>174725</v>
+        <v>174596</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>107927</v>
+        <v>110159</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>145240</v>
+        <v>143079</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>128647</v>
+        <v>129477</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>165499</v>
+        <v>165129</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>272193</v>
+        <v>270167</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>346356</v>
+        <v>346203</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>308892</v>
+        <v>309827</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>352298</v>
+        <v>352539</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>187040</v>
+        <v>187715</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>233602</v>
+        <v>234454</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>209120</v>
+        <v>210630</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>214974</v>
+        <v>216022</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>145811</v>
+        <v>146230</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>188204</v>
+        <v>187779</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>170775</v>
+        <v>169443</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>198047</v>
+        <v>198051</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>328386</v>
+        <v>325352</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>408361</v>
+        <v>409523</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>368337</v>
+        <v>366233</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>400858</v>
+        <v>404370</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>205614</v>
+        <v>204887</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>219891</v>
+        <v>222053</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>239158</v>
+        <v>240069</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>196464</v>
+        <v>195374</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>131209</v>
+        <v>132139</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>184047</v>
+        <v>186403</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>177429</v>
+        <v>179579</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>184486</v>
+        <v>184951</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>347540</v>
+        <v>347427</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>421794</v>
+        <v>422887</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>433180</v>
+        <v>431807</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>395755</v>
+        <v>393367</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>244092</v>
+        <v>244682</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>269746</v>
+        <v>270514</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>287595</v>
+        <v>288475</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>241878</v>
+        <v>241371</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>178985</v>
+        <v>177040</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>236804</v>
+        <v>237739</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>230037</v>
+        <v>231439</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>224377</v>
+        <v>224050</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>408404</v>
+        <v>410815</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>494167</v>
+        <v>496305</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>504293</v>
+        <v>502964</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>451509</v>
+        <v>453969</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>138876</v>
+        <v>140024</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>148319</v>
+        <v>147609</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>161090</v>
+        <v>162813</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>203205</v>
+        <v>202207</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>103034</v>
+        <v>103344</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>127334</v>
+        <v>127855</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>118090</v>
+        <v>118186</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>146318</v>
+        <v>146452</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>249399</v>
+        <v>249333</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>286796</v>
+        <v>289151</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>291772</v>
+        <v>291791</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>358838</v>
+        <v>361706</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>170794</v>
+        <v>172234</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>190867</v>
+        <v>190419</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>202003</v>
+        <v>203372</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>250176</v>
+        <v>250455</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>138815</v>
+        <v>141337</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>170919</v>
+        <v>170327</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>159973</v>
+        <v>161336</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>182760</v>
+        <v>183568</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>302780</v>
+        <v>303135</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>352345</v>
+        <v>350679</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>352894</v>
+        <v>353405</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>420178</v>
+        <v>421112</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>169824</v>
+        <v>171577</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>220258</v>
+        <v>220274</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>240726</v>
+        <v>243246</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>209837</v>
+        <v>207802</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>156529</v>
+        <v>155217</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>198924</v>
+        <v>201014</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>225714</v>
+        <v>221820</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>237348</v>
+        <v>237383</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>341665</v>
+        <v>335371</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>435649</v>
+        <v>437341</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>478650</v>
+        <v>481810</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>461675</v>
+        <v>464619</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>208175</v>
+        <v>208088</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>268723</v>
+        <v>267203</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>287582</v>
+        <v>288321</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>255512</v>
+        <v>256473</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>202203</v>
+        <v>200225</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>252052</v>
+        <v>251982</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>278586</v>
+        <v>278851</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>283733</v>
+        <v>279040</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>402268</v>
+        <v>395902</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>507785</v>
+        <v>506021</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>549939</v>
+        <v>552404</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>524124</v>
+        <v>522836</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>708822</v>
+        <v>709147</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>825377</v>
+        <v>828209</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>863166</v>
+        <v>859441</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>830169</v>
+        <v>828246</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>535389</v>
+        <v>540728</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>702346</v>
+        <v>703200</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>695754</v>
+        <v>688176</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>770248</v>
+        <v>773108</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1260537</v>
+        <v>1263567</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1558675</v>
+        <v>1555332</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1578912</v>
+        <v>1581230</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1630171</v>
+        <v>1634382</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>776774</v>
+        <v>778902</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>916397</v>
+        <v>917448</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>946459</v>
+        <v>948433</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>920335</v>
+        <v>917733</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>620013</v>
+        <v>621319</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>798323</v>
+        <v>794106</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>789777</v>
+        <v>788587</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>848010</v>
+        <v>850646</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1376185</v>
+        <v>1375365</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1689337</v>
+        <v>1683477</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1713381</v>
+        <v>1712397</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1741350</v>
+        <v>1749323</v>
       </c>
     </row>
     <row r="24">
